--- a/04-Study_one/04-Data_Analysis/Log_analysis/social_interaction/entity_access_time_all.xlsx
+++ b/04-Study_one/04-Data_Analysis/Log_analysis/social_interaction/entity_access_time_all.xlsx
@@ -28,30 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>accessed_in(s)</t>
   </si>
   <si>
     <t>This table summarizes the number (and portion) of entities accessed as a function of time (min)</t>
   </si>
-  <si>
-    <t>5//60</t>
-  </si>
-  <si>
-    <t>10//60</t>
-  </si>
-  <si>
-    <t>30//60</t>
-  </si>
-  <si>
-    <t>`0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -91,7 +82,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +112,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage of entities accessed as a function</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -154,8 +175,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -170,200 +191,209 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Sheet2!$1:$1</c:f>
-              <c:strCache>
-                <c:ptCount val="29"/>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>`0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5//60</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10//60</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30//60</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet2!$A$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.0038781163434903</c:v>
+                  <c:v>0.38781163434903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0132963988919668</c:v>
+                  <c:v>1.329639889196676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0210526315789474</c:v>
+                  <c:v>2.105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0426592797783933</c:v>
+                  <c:v>4.265927977839335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0686980609418282</c:v>
+                  <c:v>6.869806094182825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10803324099723</c:v>
+                  <c:v>10.803324099723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.137396121883657</c:v>
+                  <c:v>13.73961218836565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.155124653739612</c:v>
+                  <c:v>15.51246537396122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.173961218836565</c:v>
+                  <c:v>17.39612188365651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.184487534626039</c:v>
+                  <c:v>18.44875346260388</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.197229916897507</c:v>
+                  <c:v>19.72299168975069</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.210526315789474</c:v>
+                  <c:v>21.05263157894737</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.224930747922438</c:v>
+                  <c:v>22.49307479224377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.239335180055402</c:v>
+                  <c:v>23.93351800554017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.249861495844875</c:v>
+                  <c:v>24.98614958448753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.260387811634349</c:v>
+                  <c:v>26.0387811634349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.269252077562327</c:v>
+                  <c:v>26.92520775623269</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.277562326869806</c:v>
+                  <c:v>27.75623268698061</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.282548476454294</c:v>
+                  <c:v>28.25484764542936</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.289196675900277</c:v>
+                  <c:v>28.9196675900277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30803324099723</c:v>
+                  <c:v>30.80332409972299</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.327423822714681</c:v>
+                  <c:v>32.74238227146814</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.337950138504155</c:v>
+                  <c:v>33.79501385041551</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.344598337950138</c:v>
+                  <c:v>34.45983379501385</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.349030470914127</c:v>
+                  <c:v>34.90304709141274</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.354570637119114</c:v>
+                  <c:v>35.45706371191136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3601108033241</c:v>
+                  <c:v>36.01108033240997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.362880886426593</c:v>
+                  <c:v>36.28808864265927</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.365096952908587</c:v>
+                  <c:v>36.50969529085872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -373,18 +403,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-2053776768"/>
+        <c:axId val="-2072449008"/>
         <c:axId val="-2052623136"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2053776768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2072449008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -423,11 +508,8 @@
         </c:txPr>
         <c:crossAx val="-2052623136"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="-2052623136"/>
         <c:scaling>
@@ -449,6 +531,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -480,9 +618,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053776768"/>
+        <c:crossAx val="-2072449008"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1091,13 +1229,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8974,100 +9112,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>5</v>
-      </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>7</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>8</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>9</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>10</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>11</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2">
         <v>12</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2">
         <v>13</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>14</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="2">
         <v>15</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="2">
         <v>16</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="2">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="2">
         <v>25</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="2">
         <v>30</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="2">
         <v>35</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="2">
         <v>40</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="2">
         <v>50</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="2">
         <v>60</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="2">
         <v>70</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="2">
         <v>75</v>
       </c>
     </row>
@@ -9162,124 +9300,95 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:D3" si="0">A2/1805</f>
-        <v>3.8781163434903048E-3</v>
+        <v>0.38781163434903049</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>1.3296398891966758E-2</v>
+        <v>1.3296398891966759</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2.1052631578947368E-2</v>
+        <v>2.1052631578947367</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>4.2659279778393351E-2</v>
+        <v>4.2659279778393353</v>
       </c>
       <c r="E3">
-        <f>E2/1805</f>
-        <v>6.869806094182826E-2</v>
+        <v>6.8698060941828256</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:AC3" si="1">F2/1805</f>
-        <v>0.10803324099722991</v>
+        <v>10.803324099722991</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>0.13739612188365652</v>
+        <v>13.739612188365651</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0.15512465373961218</v>
+        <v>15.512465373961218</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0.1739612188365651</v>
+        <v>17.396121883656509</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.18448753462603878</v>
+        <v>18.448753462603879</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.19722991689750694</v>
+        <v>19.722991689750693</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.21052631578947367</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0.22493074792243767</v>
+        <v>22.493074792243767</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0.23933518005540166</v>
+        <v>23.933518005540165</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.24986149584487535</v>
+        <v>24.986149584487535</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0.26038781163434904</v>
+        <v>26.038781163434905</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0.26925207756232689</v>
+        <v>26.925207756232687</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0.27756232686980609</v>
+        <v>27.75623268698061</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
-        <v>0.28254847645429365</v>
+        <v>28.254847645429365</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
-        <v>0.28919667590027703</v>
+        <v>28.919667590027704</v>
       </c>
       <c r="U3">
-        <f t="shared" si="1"/>
-        <v>0.3080332409972299</v>
+        <v>30.803324099722989</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
-        <v>0.32742382271468146</v>
+        <v>32.742382271468145</v>
       </c>
       <c r="W3">
-        <f t="shared" si="1"/>
-        <v>0.33795013850415512</v>
+        <v>33.795013850415515</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
-        <v>0.3445983379501385</v>
+        <v>34.45983379501385</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="1"/>
-        <v>0.34903047091412742</v>
+        <v>34.903047091412745</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>0.35457063711911357</v>
+        <v>35.45706371191136</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="1"/>
-        <v>0.36011080332409973</v>
+        <v>36.011080332409975</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="1"/>
-        <v>0.36288088642659277</v>
+        <v>36.288088642659275</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="1"/>
-        <v>0.36509695290858724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+        <v>36.509695290858723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
